--- a/Front Panel/BOM-FP-Rev2d.xlsx
+++ b/Front Panel/BOM-FP-Rev2d.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pwver\Documents\Hobby\Curve Tracer\Version 3\Face Plate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pwver\Documents\Hobby\Curve Tracer\Version 3\Final Version\Front Panel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EF4A5C5-B381-4F84-8B27-C8E3036E0FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FD21509-93EF-49A5-87BE-F46A60D0B57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="2505" windowWidth="24180" windowHeight="15165" xr2:uid="{045EFDA7-D80F-406D-8318-0D6024B6C034}"/>
+    <workbookView xWindow="3120" yWindow="1845" windowWidth="20325" windowHeight="13980" xr2:uid="{045EFDA7-D80F-406D-8318-0D6024B6C034}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM-FacePlateRev2b28JUN22" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="124">
   <si>
     <t>Quantity</t>
   </si>
@@ -108,6 +108,12 @@
     <t>Kingbright</t>
   </si>
   <si>
+    <t>AA3528QBS/D09</t>
+  </si>
+  <si>
+    <t>754-AA3528QBS/D09CT-ND</t>
+  </si>
+  <si>
     <t>D2, D4</t>
   </si>
   <si>
@@ -387,22 +393,13 @@
     <t>Changed P1, P2 to optional because they are a pain to use.</t>
   </si>
   <si>
-    <t>AA3528QBS/D</t>
-  </si>
-  <si>
-    <t>754-1533-1-ND</t>
-  </si>
-  <si>
-    <t>Okt 7-2024</t>
-  </si>
-  <si>
-    <t>Aug 8-2024</t>
-  </si>
-  <si>
-    <t>Updated p/n for D1 (same part)</t>
-  </si>
-  <si>
-    <t>Updated p/ns</t>
+    <t>Note that this is a different LED compared to the red and green one, because SunLED does not have this type in blue</t>
+  </si>
+  <si>
+    <t>Juli 25</t>
+  </si>
+  <si>
+    <t>Added comment to blue LED</t>
   </si>
 </sst>
 </file>
@@ -476,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -499,9 +496,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -517,7 +517,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -816,7 +816,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,12 +837,12 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -859,19 +859,19 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>6</v>
@@ -967,17 +967,17 @@
       <c r="H7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>120</v>
+      <c r="I7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -985,30 +985,30 @@
         <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1016,30 +1016,30 @@
         <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1047,30 +1047,30 @@
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1078,33 +1078,33 @@
         <v>2</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1112,30 +1112,30 @@
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1143,30 +1143,30 @@
         <v>1</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1174,30 +1174,30 @@
         <v>1</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1205,32 +1205,32 @@
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1238,32 +1238,32 @@
         <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1271,32 +1271,32 @@
         <v>1</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1304,32 +1304,32 @@
         <v>2</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1337,32 +1337,32 @@
         <v>1</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1370,32 +1370,32 @@
         <v>2</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1403,50 +1403,50 @@
         <v>1</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="8">
+        <v>45505</v>
+      </c>
+      <c r="B25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>122</v>
-      </c>
-      <c r="B25" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>121</v>
       </c>
       <c r="B26" t="s">
         <v>123</v>
